--- a/funcs/control.xlsx
+++ b/funcs/control.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Ivanovo\Документация ЮНИТ М300\Разработка\Схемы ФБ ЮНИТ-М3\Трансформатор\ИЭУ Т 35 кВ Россети\01. Разработка ФБ\17. ДЗТ 35\_xlsx\funcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.11.240\Company\Ivanovo\Документация ЮНИТ М300\Разработка\Схемы ФБ ЮНИТ-М3\Трансформатор\ИЭУ Т 35 кВ Россети\01. Разработка ФБ\46. КА В\_xlsx\funcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Категория (group)</t>
   </si>
@@ -139,46 +139,25 @@
     <t>Hash</t>
   </si>
   <si>
-    <t>ОВ ДЗТ</t>
-  </si>
-  <si>
-    <t>Оперативный вывод функции ДЗТ</t>
-  </si>
-  <si>
-    <t>Перевод ДТО на сигнал</t>
-  </si>
-  <si>
-    <t>ДТО на сигн</t>
-  </si>
-  <si>
-    <t>Оперативный вывод функции ДТО</t>
-  </si>
-  <si>
-    <t>ОВ ДТО</t>
-  </si>
-  <si>
-    <t>ДЗТ</t>
-  </si>
-  <si>
-    <t>TDIF</t>
-  </si>
-  <si>
-    <t>Перевод ДТЗт на сигнал</t>
-  </si>
-  <si>
-    <t>Оперативный вывод функции ДТЗт</t>
-  </si>
-  <si>
-    <t>ДТЗт на сигн</t>
-  </si>
-  <si>
-    <t>ОВ ДТЗт</t>
-  </si>
-  <si>
-    <t>Оперативный вывод функции КЦТнеб</t>
-  </si>
-  <si>
-    <t>ОВ КЦТнеб</t>
+    <t>Оперативный вывод КА</t>
+  </si>
+  <si>
+    <t>ОВ КА</t>
+  </si>
+  <si>
+    <t>КА</t>
+  </si>
+  <si>
+    <t>Сброс счетчика операций В</t>
+  </si>
+  <si>
+    <t>Сброс счет. опер. В</t>
+  </si>
+  <si>
+    <t>T_IO</t>
+  </si>
+  <si>
+    <t>button</t>
   </si>
 </sst>
 </file>
@@ -199,7 +178,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,12 +225,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,13 +649,13 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -755,13 +741,13 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -832,378 +818,10 @@
       <c r="AB3" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" t="s">
-        <v>33</v>
+      <c r="AC3" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="AD3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1217,7 +835,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +856,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +864,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
